--- a/biology/Zoologie/Curculio_(genre)/Curculio_(genre).xlsx
+++ b/biology/Zoologie/Curculio_(genre)/Curculio_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curculio est un genre d'insectes de l'ordre des coléoptères et de la famille des Curculionidae (charançons ou balanins). Un grand nombre d'espèces rangées autrefois dans ce genre, sont aujourd'hui classées dans d'autres genres ou tribus. Il n'en existe donc plus qu'une trentaine selon la classification moderne.
 </t>
@@ -511,7 +523,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Curculio aurivestis (Chittenden, 1927).
 Curculio caryae (Horn, 1873).
